--- a/DataProcess/bin/Release/cluster.xlsx
+++ b/DataProcess/bin/Release/cluster.xlsx
@@ -5665,8 +5665,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -5711,10 +5711,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -6019,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="D570" sqref="D570"/>
+    <sheetView tabSelected="1" topLeftCell="A695" workbookViewId="0">
+      <selection activeCell="C697" sqref="C697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/DataProcess/bin/Release/cluster.xlsx
+++ b/DataProcess/bin/Release/cluster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -5663,23 +5663,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5711,10 +5711,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -5725,15 +5725,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5775,7 +5783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5807,9 +5815,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5841,6 +5850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6016,18 +6026,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A695" workbookViewId="0">
-      <selection activeCell="C697" sqref="C697"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="D832" sqref="D832"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -19188,12 +19198,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19202,12 +19212,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataProcess/bin/Release/cluster.xlsx
+++ b/DataProcess/bin/Release/cluster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -5663,23 +5663,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5711,10 +5711,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -5725,7 +5725,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5741,7 +5741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5783,7 +5783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5815,10 +5815,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5850,7 +5849,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6026,18 +6024,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="D832" sqref="D832"/>
+    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
+      <selection activeCell="D939" sqref="D939"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -19198,12 +19196,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19212,12 +19210,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
